--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -614,6 +614,168 @@
         <v>0</v>
       </c>
       <c r="D10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,6 +779,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,6 +833,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -992,6 +992,60 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1046,6 +1046,60 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -1100,6 +1100,114 @@
         <v>0</v>
       </c>
       <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="C42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,6 +1211,60 @@
         <v>1</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1265,6 +1265,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1316,6 +1316,60 @@
         <v>0</v>
       </c>
       <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-04-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,438 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
